--- a/Bitacoras/NRC_163_Grupo_47/Parcial_04/Bitacora_Evaluacion_Continua_Parcial_04_NRC_163.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_04/Bitacora_Evaluacion_Continua_Parcial_04_NRC_163.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAD8240-F8A4-4825-A37C-19CCB4ED05DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DC3692-633F-453C-B686-6A22B7A22E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D0ACB533-26E8-4A60-8A51-A7566BA8A636}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{D0ACB533-26E8-4A60-8A51-A7566BA8A636}"/>
   </bookViews>
   <sheets>
-    <sheet name="Podcast" sheetId="1" r:id="rId1"/>
-    <sheet name="Asistencia" sheetId="2" r:id="rId2"/>
-    <sheet name="Concentrado" sheetId="3" r:id="rId3"/>
+    <sheet name="Asistencia" sheetId="2" r:id="rId1"/>
+    <sheet name="Podcast" sheetId="1" r:id="rId2"/>
+    <sheet name="Poster" sheetId="4" r:id="rId3"/>
+    <sheet name="Mov_Circular" sheetId="6" r:id="rId4"/>
+    <sheet name="Examen" sheetId="5" r:id="rId5"/>
+    <sheet name="Concentrado" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrado!$A$2:$K$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="91">
   <si>
     <t>Alumno</t>
   </si>
@@ -170,13 +176,154 @@
   </si>
   <si>
     <t>Ej_9_Abril</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>Versión</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Faltas</t>
+  </si>
+  <si>
+    <t>Podcast</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Integrantes</t>
+  </si>
+  <si>
+    <t>Letrero</t>
+  </si>
+  <si>
+    <t>Tipo_Cont.</t>
+  </si>
+  <si>
+    <t>Soluciones</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>Ej_Mov_Circular</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>Examen</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +335,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,11 +377,25 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -557,11 +724,498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1BCDB0-EEA7-48B3-BCFD-5AF58989E03D}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="7.28515625" style="2" customWidth="1"/>
+    <col min="10" max="16" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>45363</v>
+      </c>
+      <c r="C1" s="3">
+        <v>45366</v>
+      </c>
+      <c r="D1" s="3">
+        <v>45370</v>
+      </c>
+      <c r="E1" s="3">
+        <v>45373</v>
+      </c>
+      <c r="F1" s="3">
+        <v>45377</v>
+      </c>
+      <c r="G1" s="3">
+        <v>45380</v>
+      </c>
+      <c r="H1" s="3">
+        <v>45384</v>
+      </c>
+      <c r="I1" s="3">
+        <v>45387</v>
+      </c>
+      <c r="J1" s="3">
+        <v>45391</v>
+      </c>
+      <c r="K1" s="3">
+        <v>45394</v>
+      </c>
+      <c r="L1" s="3">
+        <v>45398</v>
+      </c>
+      <c r="M1" s="3">
+        <v>45401</v>
+      </c>
+      <c r="N1" s="3">
+        <v>45405</v>
+      </c>
+      <c r="O1" s="3">
+        <v>45408</v>
+      </c>
+      <c r="P1" s="3">
+        <v>45412</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>45415</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <f>SUM(B2:Q2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R25" si="0">SUM(B3:Q3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9FFBA2-3646-4576-AB3F-FD50D6DF1414}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +1229,7 @@
     <col min="8" max="8" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -620,8 +1274,33 @@
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
       <c r="K2" s="2">
-        <v>10</v>
+        <f>SUM(C2:J2)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -631,9 +1310,33 @@
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K25" si="0">SUM(C3:J3)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -643,9 +1346,33 @@
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -835,9 +1562,33 @@
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -847,9 +1598,33 @@
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
       <c r="K11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -895,9 +1670,33 @@
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
       <c r="K13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -943,9 +1742,33 @@
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1027,9 +1850,33 @@
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
       <c r="K18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1039,9 +1886,33 @@
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
       <c r="K19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1051,9 +1922,33 @@
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
       <c r="K20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1135,9 +2030,33 @@
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
       <c r="K23" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1183,165 +2102,33 @@
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
       <c r="K25" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1BCDB0-EEA7-48B3-BCFD-5AF58989E03D}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3">
-        <v>45391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1350,220 +2137,4457 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA5FB5C-8903-4BD6-B134-1A32C401EC47}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5A9A13-4DFC-40E0-BB1B-44135737DD15}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
       <c r="C2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <f>SUM(B2:H2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
       <c r="C3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I25" si="0">SUM(B3:H3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
       <c r="C6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
       <c r="C10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
       <c r="C11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
       <c r="C12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
       <c r="C13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
       <c r="C14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
       <c r="C15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
       <c r="C16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
       <c r="C17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
       <c r="C18" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
       <c r="C19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
       <c r="C21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
       <c r="C22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
       <c r="C23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
       <c r="C24" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
       <c r="C25" s="2">
         <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D6E92-4540-4012-96FB-262D94F9633B}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="5.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="2">
+        <f>SUM(B2:J2)</f>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K25" si="0">SUM(B3:J3)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="0"/>
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28077C9-CC6C-47CE-89C9-E2EC3EB2C1D0}">
+  <dimension ref="A1:AB23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11" max="18" width="3.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" style="2" customWidth="1"/>
+    <col min="20" max="22" width="3.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="4">
+        <f>MAX(X2:X3,X5:X23)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2">
+        <f>SUM(C2:V2)</f>
+        <v>14.5</v>
+      </c>
+      <c r="X2" s="4">
+        <f>(W2/20)*10</f>
+        <v>7.25</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>X2+1.75</f>
+        <v>9</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>10-AB1</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" ref="W3:W23" si="0">SUM(C3:V3)</f>
+        <v>10</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:X23" si="1">(W3/20)*10</f>
+        <v>5</v>
+      </c>
+      <c r="Y3" s="4">
+        <f t="shared" ref="Y3:Y23" si="2">X3+1.75</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <f t="shared" si="0"/>
+        <v>8.08</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="1"/>
+        <v>4.04</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="2"/>
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.33</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.165</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="shared" si="2"/>
+        <v>3.915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" si="2"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="2">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <f t="shared" si="0"/>
+        <v>12.75</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="1"/>
+        <v>6.375</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" si="2"/>
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>1</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="2"/>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="0"/>
+        <v>8.66</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="1"/>
+        <v>4.33</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="2"/>
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.66</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="1"/>
+        <v>4.83</v>
+      </c>
+      <c r="Y11" s="4">
+        <f t="shared" si="2"/>
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2">
+        <v>1</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Y13" s="4">
+        <f t="shared" si="2"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="1"/>
+        <v>2.375</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="2"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>1</v>
+      </c>
+      <c r="S16" s="2">
+        <v>1</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+      <c r="Y16" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="0"/>
+        <v>5.91</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="Y18" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7050000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="1"/>
+        <v>4.875</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" si="2"/>
+        <v>6.625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="0"/>
+        <v>8.83</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="1"/>
+        <v>4.415</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" si="2"/>
+        <v>6.165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="0"/>
+        <v>11.33</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="1"/>
+        <v>5.665</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="2"/>
+        <v>7.415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="0"/>
+        <v>8.08</v>
+      </c>
+      <c r="X23" s="2">
+        <f t="shared" si="1"/>
+        <v>4.04</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" si="2"/>
+        <v>5.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA5FB5C-8903-4BD6-B134-1A32C401EC47}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="5190" ySplit="1080" topLeftCell="H2" activePane="bottomRight"/>
+      <selection sqref="A1:A1048576"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="2">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2">
+        <f>SUM(C1:F1)</f>
+        <v>31</v>
+      </c>
+      <c r="H1" s="2">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G3" s="2">
+        <f>SUM(C3:F3)</f>
+        <v>30.3</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(G3/31)*10</f>
+        <v>9.7741935483870961</v>
+      </c>
+      <c r="I3" s="4">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4">
+        <f>H3*0.4+I3*0.6</f>
+        <v>9.3096774193548377</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G24" si="0">SUM(C4:F4)</f>
+        <v>28.5</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H24" si="1">(G4/31)*10</f>
+        <v>9.193548387096774</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J24" si="2">H4*0.4+I4*0.6</f>
+        <v>7.7274193548387098</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>9.67741935483871</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
+        <v>9.870967741935484</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>3.870967741935484</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>5.0223870967741933</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5483870967741939</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3.915</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7683548387096772</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6.25</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="4">
+        <v>8.125</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>8.875</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.35</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>30.35</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7903225806451619</v>
+      </c>
+      <c r="I10" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>7.9661290322580651</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>3.225806451612903</v>
+      </c>
+      <c r="I11" s="4">
+        <v>6.08</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>4.9383225806451607</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4516129032258061</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6.58</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>6.5286451612903225</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>3.225806451612903</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2903225806451613</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>9.5161290322580641</v>
+      </c>
+      <c r="I14" s="4">
+        <v>8.75</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>9.056451612903226</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>3.870967741935484</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4.125</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0233870967741936</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>4.193548387096774</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6774193548387097</v>
+      </c>
+      <c r="K16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>9.5161290322580641</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>8.006451612903227</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7.35</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>27.35</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>8.8225806451612918</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>8.3290322580645171</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>5.806451612903226</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4.7050000000000001</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>5.1455806451612904</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>3.870967741935484</v>
+      </c>
+      <c r="I20" s="4">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>5.1483870967741936</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>3.225806451612903</v>
+      </c>
+      <c r="I21" s="4">
+        <v>6.625</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>5.2653225806451607</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>26.5</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>8.5483870967741939</v>
+      </c>
+      <c r="I22" s="4">
+        <v>6.165</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>7.1183548387096778</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>6.290322580645161</v>
+      </c>
+      <c r="I23" s="4">
+        <v>7.415</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>6.9651290322580639</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>5.806451612903226</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5.79</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="2"/>
+        <v>5.7965806451612902</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:F24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bitacoras/NRC_163_Grupo_47/Parcial_04/Bitacora_Evaluacion_Continua_Parcial_04_NRC_163.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_04/Bitacora_Evaluacion_Continua_Parcial_04_NRC_163.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DC3692-633F-453C-B686-6A22B7A22E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A93119A-F54B-487E-840E-49E36BA60DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{D0ACB533-26E8-4A60-8A51-A7566BA8A636}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D0ACB533-26E8-4A60-8A51-A7566BA8A636}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="2" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +380,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1BCDB0-EEA7-48B3-BCFD-5AF58989E03D}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +742,7 @@
     <col min="18" max="18" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,8 +797,11 @@
       <c r="R1" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="5">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -809,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -824,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -836,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -887,7 +891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -896,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -908,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -956,7 +960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -967,8 +971,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -983,7 +990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -995,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1012,8 +1019,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1030,8 +1040,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1054,8 +1067,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1066,8 +1082,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1076,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1102,8 +1121,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1112,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1127,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1141,8 +1163,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1153,8 +1178,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1165,8 +1193,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1175,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1190,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1203,6 +1234,9 @@
       <c r="R25" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5668,7 +5702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA5FB5C-8903-4BD6-B134-1A32C401EC47}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="5190" ySplit="1080" topLeftCell="H2" activePane="bottomRight"/>
       <selection sqref="A1:A1048576"/>
       <selection pane="topRight" activeCell="I1" sqref="I1:I1048576"/>
